--- a/Review papers.xlsx
+++ b/Review papers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n216_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099D4ED6-DB47-41DF-99DA-A221B1CB153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141FE8AB-C932-43A8-AD37-9100C638CC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GANs" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="237">
   <si>
     <t>Title</t>
   </si>
@@ -404,9 +404,6 @@
     <t>Ahmed M. Alaa, Boris van Breugel, Evgeny Saveliev, Mihaela van der Schaar</t>
   </si>
   <si>
-    <t>Model assessment</t>
-  </si>
-  <si>
     <t>SIVEP-Gripe COVID-19 patient data
 MNIST data
  AmsterdamUMCdb data</t>
@@ -797,9 +794,6 @@
     <t>2021/11/01</t>
   </si>
   <si>
-    <t>1900/01/00</t>
-  </si>
-  <si>
     <t>2021/11/16</t>
   </si>
   <si>
@@ -864,17 +858,20 @@
   </si>
   <si>
     <t>2022/06/26</t>
+  </si>
+  <si>
+    <t>2019/08/01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -882,7 +879,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -890,14 +887,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -905,13 +902,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -938,7 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -963,10 +960,13 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1246,30 +1246,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FA087E-C0D3-469D-A8E2-9DE3389B497D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="3"/>
-    <col min="2" max="2" width="145.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="141.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="145.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="40" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="72.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="7"/>
+    <col min="11" max="11" width="88.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="72.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1305,7 +1305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="93" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="110.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>12</v>
@@ -1340,7 +1340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="78.75">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>21</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="63">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -1413,10 +1413,10 @@
         <v>34</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="108.5" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="110.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1426,8 +1426,8 @@
       <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>215</v>
+      <c r="D5" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>37</v>
@@ -1451,7 +1451,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="78.75">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>46</v>
@@ -1489,7 +1489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="47.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>54</v>
@@ -1524,7 +1524,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="31.5">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>60</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>61</v>
@@ -1559,7 +1559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="B9" s="3" t="s">
         <v>67</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>69</v>
@@ -1591,7 +1591,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="47.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>77</v>
@@ -1623,7 +1623,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="31.5">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>83</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>38</v>
@@ -1652,7 +1652,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="63">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>89</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>90</v>
@@ -1690,7 +1690,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="62" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="63">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>99</v>
@@ -1728,7 +1728,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="47.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1739,71 +1739,71 @@
         <v>106</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:12" ht="63">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="62" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="L15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:12" ht="47.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
@@ -1812,129 +1812,129 @@
         <v>62</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="L16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:12" ht="78.75">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:12" ht="63">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="62" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="63">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="62" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="94.5">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="D20" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>37</v>
@@ -1949,30 +1949,30 @@
         <v>40</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="K20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:12" ht="63">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="62" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>13</v>
@@ -1981,30 +1981,30 @@
         <v>40</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>13</v>
@@ -2013,30 +2013,30 @@
         <v>23</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="K22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:12" ht="94.5">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="93" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>13</v>
@@ -2045,30 +2045,30 @@
         <v>23</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="K23" s="5" t="s">
+    </row>
+    <row r="24" spans="1:12" ht="47.25">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>13</v>
@@ -2077,62 +2077,62 @@
         <v>23</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="K24" s="5" t="s">
+    </row>
+    <row r="25" spans="1:12" ht="78.75">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="K25" s="5" t="s">
+    </row>
+    <row r="26" spans="1:12" ht="47.25">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>13</v>
@@ -2141,33 +2141,33 @@
         <v>23</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="L26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:12" ht="78.75">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>13</v>
@@ -2176,83 +2176,83 @@
         <v>23</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K27" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="63">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="62" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K28" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="L28" s="5" t="s">
+    </row>
+    <row r="29" spans="1:12" ht="63">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="62" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K29" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="L29" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:12">
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="5"/>
@@ -2312,7 +2312,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Review papers.xlsx
+++ b/Review papers.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9978D3F6-E1DF-4664-9F17-855D3D8850F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1242F590-1DF0-41DF-8FFD-C10F5E47E522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17775" yWindow="0" windowWidth="33825" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="GANs" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="219">
   <si>
     <t>Title</t>
   </si>
@@ -34,7 +35,6 @@
   </si>
   <si>
     <t>Year</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Jeha Paul, Bohlke-Schneider Michael, Mercado Pedro, Kapoor Shubham, Singh Nirwan Rajbir, Flunkert Valentin, Gasthaus Jan, Januschowski Tim</t>
-  </si>
-  <si>
-    <t>2022/03/28</t>
   </si>
   <si>
     <t>PSA-GAN</t>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>Jinsung Yoon, Daniel Jarrett, Mihaela van der Schaar</t>
-  </si>
-  <si>
-    <t>2019/12/08</t>
   </si>
   <si>
     <t>Time-GAN</t>
@@ -140,9 +134,6 @@
     <t>Hao Ni, Lukasz Szpruch, Marc Sabate-Vidales, Baoren Xiao, Magnus Wiese, Shujian Liao</t>
   </si>
   <si>
-    <t>2021/11/01</t>
-  </si>
-  <si>
     <t>Sig-WGAN</t>
   </si>
   <si>
@@ -162,16 +153,10 @@
     <t>https://arxiv.org/pdf/2111.01207.pdf</t>
   </si>
   <si>
-    <t>https://github.com/SigCGANs/Sig-Wasserstein-GANs</t>
-  </si>
-  <si>
     <t>Modeling Financial Time-Series With Generative Adversarial Networks</t>
   </si>
   <si>
     <t>Shuntaro Takahashi, Yu Chen, Kumiko Tanaka-Ishii</t>
-  </si>
-  <si>
-    <t>2019/08/01</t>
   </si>
   <si>
     <t>GAN</t>
@@ -207,9 +192,6 @@
     <t>Hengzhi Pei, Kan Ren, Yuqing Yang, Chang Liu, Tao Qin, Dongsheng Li</t>
   </si>
   <si>
-    <t>2021/11/16</t>
-  </si>
-  <si>
     <t xml:space="preserve">RTSGAN </t>
   </si>
   <si>
@@ -239,9 +221,6 @@
     <t>Daniel Jarrett, Ioana Bica, Mihaela van der Schaar</t>
   </si>
   <si>
-    <t>2021/12/06</t>
-  </si>
-  <si>
     <t>GAN with different loss</t>
   </si>
   <si>
@@ -266,9 +245,6 @@
     <t>Zhengping Che, Sanjay Purushotham, Guangyu Li, Bo Jiang, Yan Liu</t>
   </si>
   <si>
-    <t>2018/07/10</t>
-  </si>
-  <si>
     <t>Multi-Rate Hierarchical Deep Markov Model</t>
   </si>
   <si>
@@ -295,9 +271,6 @@
     <t>Mathias Berglund, Tapani Raiko, Mikko Honkala, Leo Kärkkäinen, Akos Vetek, Juha Karhunen</t>
   </si>
   <si>
-    <t>2015/11/02</t>
-  </si>
-  <si>
     <t>BRNN</t>
   </si>
   <si>
@@ -320,9 +293,6 @@
   </si>
   <si>
     <t>Tianlin Xu, Li K. Wenliang, Michael Munn, Beatrice Acciaio</t>
-  </si>
-  <si>
-    <t>2020/10/21</t>
   </si>
   <si>
     <t>COT-GAN</t>
@@ -348,9 +318,6 @@
     <t>Mark Leznik, Patrick Michalsky, Peter Willis, Benjamin Schanzel, Per-Olov Östberg, Jörg Domaschka</t>
   </si>
   <si>
-    <t>2021/04/19</t>
-  </si>
-  <si>
     <t>Multivariate Time series generation</t>
   </si>
   <si>
@@ -368,9 +335,6 @@
   </si>
   <si>
     <t>Todd Huster, Jeremy E.J. Cohen, Zinan Lin, Kevin Chan, Charles Kamhoua, Nandi Leslie, Cho-Yu Jason Chiang, Vyas Sekar</t>
-  </si>
-  <si>
-    <t>2021/01/22</t>
   </si>
   <si>
     <t>Pareto GAN</t>
@@ -404,9 +368,6 @@
     <t>Ahmed M. Alaa, Alex James Chan, Mihaela van der Schaar</t>
   </si>
   <si>
-    <t>2021/03/18</t>
-  </si>
-  <si>
     <t>Fourier flow</t>
   </si>
   <si>
@@ -429,13 +390,14 @@
     <t>https://github.com/ahmedmalaa/Fourier-flows</t>
   </si>
   <si>
+    <t>How Faithful Is Your Synthetic Data?
+Sample-Level Metrics For Evaluating And Auditing Generative Models</t>
+  </si>
+  <si>
     <t>Ahmed M. Alaa, Boris van Breugel, Evgeny Saveliev, Mihaela van der Schaar</t>
   </si>
   <si>
-    <t>2021/02/17</t>
-  </si>
-  <si>
-    <t>Model Assessment</t>
+    <t>Model assessment</t>
   </si>
   <si>
     <t>SIVEP-Gripe COVID-19 patient data
@@ -455,9 +417,6 @@
   </si>
   <si>
     <t>Cristóbal Esteban, Stephanie L. Hyland, Gunnar Rätsch</t>
-  </si>
-  <si>
-    <t>2017/12/04</t>
   </si>
   <si>
     <t>RGAN
@@ -490,9 +449,6 @@
     <t>Abhyuday Desai, Cynthia Freeman, Zuhui Wang, Ian Beaver</t>
   </si>
   <si>
-    <t>2021/12/07</t>
-  </si>
-  <si>
     <t>TimeVAE</t>
   </si>
   <si>
@@ -516,9 +472,6 @@
   </si>
   <si>
     <t>Carl Remlinger, Joseph Mikael, Romuald Elie</t>
-  </si>
-  <si>
-    <t>2021/10/06</t>
   </si>
   <si>
     <t>Conditional Euler Generator</t>
@@ -553,9 +506,6 @@
     <t>Padmanaba Srinivasan, William J. Knottenbelt</t>
   </si>
   <si>
-    <t>2022/05/23</t>
-  </si>
-  <si>
     <t>TsT-GAN</t>
   </si>
   <si>
@@ -580,9 +530,6 @@
   </si>
   <si>
     <t>Sung Woo Park, Dong Wook Shu, Junseok Kwon</t>
-  </si>
-  <si>
-    <t>2021/07/18</t>
   </si>
   <si>
     <t>SD-GAN</t>
@@ -631,9 +578,6 @@
     <t>Magnus Wiese, Robert Knobloch, Ralf Korn, Peter Kretschmer</t>
   </si>
   <si>
-    <t>2020/04/06</t>
-  </si>
-  <si>
     <t>Quant GAN</t>
   </si>
   <si>
@@ -655,9 +599,6 @@
     <t>Lars Kegel, M. Hahmann, Wolfgang Lehner</t>
   </si>
   <si>
-    <t>2017/05/30</t>
-  </si>
-  <si>
     <t>Trend, season, residual model</t>
   </si>
   <si>
@@ -674,9 +615,6 @@
   </si>
   <si>
     <t>Mengyue Zha, SiuTim Wong, Mengqi Liu, Tong Zhang, Kani Chen</t>
-  </si>
-  <si>
-    <t>2022/05/19</t>
   </si>
   <si>
     <t>ExtraMAE</t>
@@ -705,9 +643,6 @@
     <t>Eoin Brophy, Zhengwei Wang, Tomas E. Ward</t>
   </si>
   <si>
-    <t>2019/10/29</t>
-  </si>
-  <si>
     <t>WGAN</t>
   </si>
   <si>
@@ -730,6 +665,9 @@
   </si>
   <si>
     <t>DP-TimeGAN, DP-Clare GAN, DP-CRNN GAN</t>
+  </si>
+  <si>
+    <t>Model Assessment</t>
   </si>
   <si>
     <t>Time series generation with data privacy</t>
@@ -755,9 +693,6 @@
     <t>Zinan Lin, Alankar Jain, Chen Wang, Giulia Fanti, Vyas Sekar</t>
   </si>
   <si>
-    <t>2020/10/27</t>
-  </si>
-  <si>
     <t>DoppelGANger</t>
   </si>
   <si>
@@ -780,9 +715,6 @@
     <t>Clare-GAN: Generation Of Class-Specific Time Series</t>
   </si>
   <si>
-    <t>2021/05/04</t>
-  </si>
-  <si>
     <t>ClaReGAN</t>
   </si>
   <si>
@@ -793,9 +725,6 @@
   </si>
   <si>
     <t>Derek Snow</t>
-  </si>
-  <si>
-    <t>2020/06/26</t>
   </si>
   <si>
     <t>MTSS-GAN</t>
@@ -819,13 +748,7 @@
     <t>https://github.com/firmai/mtss-gan/</t>
   </si>
   <si>
-    <t>TTS-GAN: A Transformer-Based Time-Series Generative Adversarial Network</t>
-  </si>
-  <si>
     <t>Xiaomin Li, Vangelis Metsis, Huangyingrui Wang, Anne Hee Hiong Ngu</t>
-  </si>
-  <si>
-    <t>2022/06/26</t>
   </si>
   <si>
     <t>TTS-GAN</t>
@@ -848,7 +771,32 @@
     <t>https://github.com/imics-lab/tts-gan</t>
   </si>
   <si>
-    <t>How Faithful Is Your Synthetic Data? Sample-Level Metrics For Evaluating And Auditing Generative Models</t>
+    <t>TTS-GAN: A Transformer-Based Time-Series Generative Adversarial Network</t>
+  </si>
+  <si>
+    <t>https://github.com/SigCGANs/Sig-Wasserstein-GANs</t>
+  </si>
+  <si>
+    <t>A Data-driven Market Simulator For Small Data Environments</t>
+  </si>
+  <si>
+    <t>Hans Buhler, Blanka Horvath, Terry Lyons, Imanol Perez Arribas, Ben Wood</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2006.14498</t>
+  </si>
+  <si>
+    <t>https://github.com/imanolperez/market_simulator</t>
+  </si>
+  <si>
+    <t>1) Signature-based MMD two-sample test</t>
+  </si>
+  <si>
+    <t>Rough Volatility model
+S&amp;P 500 Market Data</t>
+  </si>
+  <si>
+    <t>VAE</t>
   </si>
 </sst>
 </file>
@@ -921,16 +869,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -939,9 +885,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1222,29 +1166,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FA087E-C0D3-469D-A8E2-9DE3389B497D}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="104.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="93.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="145.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="72.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1252,7 +1200,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1280,7 +1228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1290,494 +1238,478 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="5">
+        <v>44648</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5">
+        <v>43807</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="5">
+        <v>44501</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="K4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="D5" s="5">
+        <v>43678</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="126" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="I5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="K5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="D6" s="5">
+        <v>44516</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="K6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="L6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="D7" s="5">
+        <v>44536</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="K7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D8" s="5">
+        <v>43291</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="J8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="K8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D9" s="5">
+        <v>42310</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5">
+        <v>44125</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="K10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="L10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="3" t="s">
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D11" s="5">
+        <v>44305</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="K11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44218</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44273</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="J13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="K13" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="L13" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="D14" s="5">
+        <v>44244</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="J14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="K14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43073</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>39</v>
+      </c>
       <c r="H15" s="3" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -1785,529 +1717,556 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="5">
+        <v>44537</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="5">
+        <v>44475</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="18" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="D18" s="5">
+        <v>44704</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4" t="s">
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="J18" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>161</v>
+        <v>143</v>
+      </c>
+      <c r="D19" s="5">
+        <v>44395</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>145</v>
+      </c>
       <c r="I19" s="4" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
+      </c>
+      <c r="D20" s="5">
+        <v>44395</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L20" s="3"/>
+        <v>153</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>174</v>
+        <v>155</v>
+      </c>
+      <c r="D21" s="5">
+        <v>43927</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>14</v>
+      </c>
       <c r="H21" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>181</v>
+        <v>161</v>
+      </c>
+      <c r="D22" s="5">
+        <v>42885</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>14</v>
+      </c>
       <c r="H22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L22" s="3"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>188</v>
+        <v>167</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44700</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>14</v>
+      </c>
       <c r="H23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="L23" s="3"/>
+        <v>171</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>195</v>
+        <v>173</v>
+      </c>
+      <c r="D24" s="5">
+        <v>43767</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3"/>
+        <v>14</v>
+      </c>
       <c r="H24" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="L24" s="3"/>
+        <v>177</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>144</v>
+        <v>179</v>
+      </c>
+      <c r="D25" s="5">
+        <v>44475</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="3"/>
+        <v>181</v>
+      </c>
       <c r="H25" s="3" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>209</v>
+        <v>187</v>
+      </c>
+      <c r="D26" s="5">
+        <v>44131</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>14</v>
+      </c>
       <c r="H26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="5">
+        <v>44320</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="K27" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="L27" s="3"/>
+        <v>195</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>221</v>
+        <v>197</v>
+      </c>
+      <c r="D28" s="5">
+        <v>44008</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>14</v>
+      </c>
       <c r="H28" s="3" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>230</v>
+        <v>204</v>
+      </c>
+      <c r="D29" s="5">
+        <v>44738</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+        <v>14</v>
+      </c>
       <c r="I29" s="4" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>235</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="5">
+        <v>44003</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L26" r:id="rId1" xr:uid="{0D261B90-F00B-484E-B07F-A59B86B6F543}"/>
-    <hyperlink ref="L29" r:id="rId2" xr:uid="{D6499407-9E5C-4BE3-9C0D-582F0C06FC49}"/>
-    <hyperlink ref="K29" r:id="rId3" xr:uid="{D3707AC2-69E6-452B-8856-C1874F807861}"/>
-    <hyperlink ref="L28" r:id="rId4" xr:uid="{53F45E2B-73BA-483D-B45F-670524EFF02C}"/>
-    <hyperlink ref="K28" r:id="rId5" xr:uid="{C68F27F6-2D40-4E80-AF1B-321B91B8C6ED}"/>
-    <hyperlink ref="L16" r:id="rId6" xr:uid="{432A17E9-AD16-4B77-A5B9-37815045130A}"/>
-    <hyperlink ref="K27" r:id="rId7" xr:uid="{3FF3E23E-C610-4E76-8436-EF6F5DFC8B6B}"/>
-    <hyperlink ref="K26" r:id="rId8" xr:uid="{B03B183A-ADA6-41BB-9FDD-4686FFBC8819}"/>
-    <hyperlink ref="K25" r:id="rId9" xr:uid="{5E515384-4F7E-426F-AD12-538CBAD1DFF3}"/>
-    <hyperlink ref="K24" r:id="rId10" xr:uid="{C3F98333-F27B-4DB9-B9B0-631B035BD581}"/>
-    <hyperlink ref="K23" r:id="rId11" xr:uid="{D2A7C501-33BA-477F-A0DA-FB526E75BF8B}"/>
-    <hyperlink ref="K22" r:id="rId12" xr:uid="{4534A780-4137-42D2-A57C-FF74FD70FCAC}"/>
-    <hyperlink ref="K21" r:id="rId13" xr:uid="{424D8CD5-1AE5-403C-A612-2337596A4715}"/>
-    <hyperlink ref="K6" r:id="rId14" xr:uid="{674EE746-2A51-4E50-BC63-9F71D958977C}"/>
-    <hyperlink ref="K20" r:id="rId15" xr:uid="{3864D0A5-29B0-4771-A706-9B815AAB3358}"/>
-    <hyperlink ref="K5" r:id="rId16" xr:uid="{E28589C3-8DFA-4D71-B45B-5BE46D6D1C92}"/>
-    <hyperlink ref="K4" r:id="rId17" xr:uid="{6D034269-9664-475D-88D6-F86A63A63AEA}"/>
-    <hyperlink ref="K2" r:id="rId18" xr:uid="{F7C6A0FA-C948-40A3-8DCE-DEDB78FECD4E}"/>
-    <hyperlink ref="K19" r:id="rId19" xr:uid="{2E6FF879-FB1D-4921-BC0F-2FAFD0C27B97}"/>
-    <hyperlink ref="K18" r:id="rId20" xr:uid="{C6F90171-D836-469F-A824-2002F25124AC}"/>
-    <hyperlink ref="K17" r:id="rId21" xr:uid="{0B99833F-4B56-47A1-8F79-8E65C1BC2150}"/>
-    <hyperlink ref="L3" r:id="rId22" xr:uid="{062DE7F7-B1F7-4E88-A40B-DCBD9886E3E8}"/>
-    <hyperlink ref="K3" r:id="rId23" xr:uid="{281B3ECE-93F6-46D6-AC88-63C34D64D145}"/>
-    <hyperlink ref="K16" r:id="rId24" xr:uid="{61A6B1A1-CC52-4585-A5F5-7B2DC2EF9D27}"/>
-    <hyperlink ref="L15" r:id="rId25" xr:uid="{CBC5A369-B822-4822-B8A4-B9DCF609689B}"/>
-    <hyperlink ref="K15" r:id="rId26" xr:uid="{E16E132F-1279-4B48-B87C-B02E171D204F}"/>
-    <hyperlink ref="K14" r:id="rId27" xr:uid="{A6D36705-8AE5-4665-A6B9-7A45B0B5FA6D}"/>
-    <hyperlink ref="K13" r:id="rId28" xr:uid="{E9868126-3748-430B-A1EE-FF5A565C7CC7}"/>
-    <hyperlink ref="L13" r:id="rId29" xr:uid="{38926ECB-617B-44F5-9510-626B653F4C38}"/>
-    <hyperlink ref="K12" r:id="rId30" xr:uid="{9C1B4809-1684-41EE-807C-EECF0FE6ED41}"/>
-    <hyperlink ref="L12" r:id="rId31" xr:uid="{A879A25B-DE22-4F80-9FCA-F9AEE7D10228}"/>
-    <hyperlink ref="K11" r:id="rId32" xr:uid="{0A3D9FAF-F58E-466F-A0EE-EAB7AAFF4A48}"/>
-    <hyperlink ref="L10" r:id="rId33" xr:uid="{89C16789-1747-44D1-BC00-BE84900B631D}"/>
-    <hyperlink ref="K10" r:id="rId34" xr:uid="{60EEBAFE-0E90-45CD-AC4D-233563952AE8}"/>
-    <hyperlink ref="K7" r:id="rId35" xr:uid="{BC2EC477-93B6-4B2A-B2A1-D2411E28E027}"/>
-    <hyperlink ref="K9" r:id="rId36" xr:uid="{EFAAFA21-D6B3-421F-A7E2-E3FC8CDEF118}"/>
-    <hyperlink ref="K8" r:id="rId37" xr:uid="{EBD703AC-CD0F-4FBC-9F33-B04D21ECD979}"/>
-    <hyperlink ref="L6" r:id="rId38" xr:uid="{562A8533-3262-4109-B907-BFEABE419491}"/>
-    <hyperlink ref="L4" r:id="rId39" xr:uid="{59E396D1-D8F0-430C-B592-8D2F0FEE0AEE}"/>
+    <hyperlink ref="L26" r:id="rId1" xr:uid="{09CD2A6A-C9D4-491F-AE49-079E211DCB02}"/>
+    <hyperlink ref="L29" r:id="rId2" xr:uid="{8C011ED6-34B2-47DB-97C3-18127E2D6457}"/>
+    <hyperlink ref="K29" r:id="rId3" xr:uid="{6DB19616-1766-49D1-A186-024F8FB78F74}"/>
+    <hyperlink ref="L28" r:id="rId4" xr:uid="{A6A8558A-7C04-41FE-A5AC-DE015AFB0F65}"/>
+    <hyperlink ref="K28" r:id="rId5" xr:uid="{BECF670C-16E5-4CCD-96D5-DAE379E90F9A}"/>
+    <hyperlink ref="L16" r:id="rId6" xr:uid="{63612FDE-62D3-4C23-B5F0-6C6711A21A98}"/>
+    <hyperlink ref="K27" r:id="rId7" xr:uid="{01ACD8FC-EB46-4076-9939-082AF23570B9}"/>
+    <hyperlink ref="K26" r:id="rId8" xr:uid="{BD9FFC96-7DE2-4954-9370-562123E52E84}"/>
+    <hyperlink ref="K25" r:id="rId9" xr:uid="{E69749B8-EF34-4B12-8980-8A29252EC1CC}"/>
+    <hyperlink ref="K24" r:id="rId10" xr:uid="{D334BDF8-2D7A-44BF-9DE9-75BB80D56282}"/>
+    <hyperlink ref="K23" r:id="rId11" xr:uid="{A791B576-655F-44E6-AC70-C2B79838586D}"/>
+    <hyperlink ref="K22" r:id="rId12" xr:uid="{E8E54421-BD47-4291-83B9-5FDB04B33432}"/>
+    <hyperlink ref="K21" r:id="rId13" xr:uid="{BBB867FC-42E9-4B56-A943-91715FAB074C}"/>
+    <hyperlink ref="K6" r:id="rId14" xr:uid="{81C0F4BA-DF71-4AA5-860E-4FFF0D7F533C}"/>
+    <hyperlink ref="K20" r:id="rId15" xr:uid="{8C1C84E0-795C-4312-AD67-AC69873D73A9}"/>
+    <hyperlink ref="K5" r:id="rId16" xr:uid="{CD64C257-F39E-4503-B5F4-164557F4E44E}"/>
+    <hyperlink ref="K4" r:id="rId17" xr:uid="{51A7E619-374A-454A-9737-A719F842E7EB}"/>
+    <hyperlink ref="K2" r:id="rId18" xr:uid="{DA1DC465-6E6B-401C-9731-7E68D10440BD}"/>
+    <hyperlink ref="K19" r:id="rId19" xr:uid="{674BD2EB-4E8A-44AC-AD6C-88E8E72B12C2}"/>
+    <hyperlink ref="K18" r:id="rId20" xr:uid="{85C6570A-5D27-4A24-BCCC-FB533353FA0E}"/>
+    <hyperlink ref="K17" r:id="rId21" xr:uid="{061C3607-D29D-4ACC-A962-79DDBAE299F0}"/>
+    <hyperlink ref="L3" r:id="rId22" xr:uid="{79EF36C8-2294-43B2-BFF4-A6228CB5A659}"/>
+    <hyperlink ref="K3" r:id="rId23" xr:uid="{1B45986B-67DD-4502-AC98-3844EA451E27}"/>
+    <hyperlink ref="K16" r:id="rId24" xr:uid="{C4EFBDA3-89D6-4A16-ABE7-82EC833482DC}"/>
+    <hyperlink ref="L15" r:id="rId25" xr:uid="{4D7085D3-BE51-4C36-B89A-70C948AFB76B}"/>
+    <hyperlink ref="K15" r:id="rId26" xr:uid="{700F074F-E754-4D0D-8F32-EAB328C16BB8}"/>
+    <hyperlink ref="K14" r:id="rId27" xr:uid="{F51AEA29-B266-478E-BA9D-3F643205233B}"/>
+    <hyperlink ref="K13" r:id="rId28" xr:uid="{41F3AED0-9FD6-4D8D-8441-D367C8C9B758}"/>
+    <hyperlink ref="L13" r:id="rId29" xr:uid="{2BDF5C6A-510D-4E7E-B3DE-A09ADA194BCA}"/>
+    <hyperlink ref="K12" r:id="rId30" xr:uid="{3948850B-6CE7-4949-9CD5-DF87D5BA2120}"/>
+    <hyperlink ref="L12" r:id="rId31" xr:uid="{E35A3F72-4A7A-484C-8527-1AC17A69EF0A}"/>
+    <hyperlink ref="K11" r:id="rId32" xr:uid="{29B798BB-950E-4502-B975-1D1B744FDDFF}"/>
+    <hyperlink ref="L10" r:id="rId33" xr:uid="{B964B6E0-E99B-48C8-B7FA-8ABCC984872E}"/>
+    <hyperlink ref="K10" r:id="rId34" xr:uid="{C66E211E-0CCF-474D-8270-B18805E0DF0F}"/>
+    <hyperlink ref="K7" r:id="rId35" xr:uid="{80D81BF5-EDDF-4025-9A19-B3BEA259AB63}"/>
+    <hyperlink ref="K9" r:id="rId36" xr:uid="{19F2C6C8-D54B-422C-98BE-73B2D614A224}"/>
+    <hyperlink ref="K8" r:id="rId37" xr:uid="{17AD1394-C0F1-491C-BBEB-D321539AA4DC}"/>
+    <hyperlink ref="L6" r:id="rId38" xr:uid="{48E40EA0-87CD-402E-BE35-C67B45076A03}"/>
+    <hyperlink ref="L4" r:id="rId39" xr:uid="{D5B7E020-104D-42DD-9A83-7A46D62750E6}"/>
+    <hyperlink ref="K30" r:id="rId40" xr:uid="{D45BF0F2-155B-4443-B8C8-BBEEDE09BC09}"/>
+    <hyperlink ref="L30" r:id="rId41" xr:uid="{E344E8A9-A6A3-4FFE-A138-0B6371C84025}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Review papers.xlsx
+++ b/Review papers.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1242F590-1DF0-41DF-8FFD-C10F5E47E522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A5335-A649-4BEC-98D1-83393A369E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17775" yWindow="0" windowWidth="33825" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GANs" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="244">
   <si>
     <t>Title</t>
   </si>
@@ -35,6 +34,7 @@
   </si>
   <si>
     <t>Year</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Jeha Paul, Bohlke-Schneider Michael, Mercado Pedro, Kapoor Shubham, Singh Nirwan Rajbir, Flunkert Valentin, Gasthaus Jan, Januschowski Tim</t>
+  </si>
+  <si>
+    <t>2022/03/28</t>
   </si>
   <si>
     <t>PSA-GAN</t>
@@ -97,6 +100,9 @@
   </si>
   <si>
     <t>Jinsung Yoon, Daniel Jarrett, Mihaela van der Schaar</t>
+  </si>
+  <si>
+    <t>2019/12/08</t>
   </si>
   <si>
     <t>Time-GAN</t>
@@ -134,6 +140,9 @@
     <t>Hao Ni, Lukasz Szpruch, Marc Sabate-Vidales, Baoren Xiao, Magnus Wiese, Shujian Liao</t>
   </si>
   <si>
+    <t>2021/11/01</t>
+  </si>
+  <si>
     <t>Sig-WGAN</t>
   </si>
   <si>
@@ -153,10 +162,16 @@
     <t>https://arxiv.org/pdf/2111.01207.pdf</t>
   </si>
   <si>
+    <t>https://github.com/SigCGANs/Sig-Wasserstein-GANs</t>
+  </si>
+  <si>
     <t>Modeling Financial Time-Series With Generative Adversarial Networks</t>
   </si>
   <si>
     <t>Shuntaro Takahashi, Yu Chen, Kumiko Tanaka-Ishii</t>
+  </si>
+  <si>
+    <t>2019/08/01</t>
   </si>
   <si>
     <t>GAN</t>
@@ -192,6 +207,9 @@
     <t>Hengzhi Pei, Kan Ren, Yuqing Yang, Chang Liu, Tao Qin, Dongsheng Li</t>
   </si>
   <si>
+    <t>2021/11/16</t>
+  </si>
+  <si>
     <t xml:space="preserve">RTSGAN </t>
   </si>
   <si>
@@ -221,6 +239,9 @@
     <t>Daniel Jarrett, Ioana Bica, Mihaela van der Schaar</t>
   </si>
   <si>
+    <t>2021/12/06</t>
+  </si>
+  <si>
     <t>GAN with different loss</t>
   </si>
   <si>
@@ -245,6 +266,9 @@
     <t>Zhengping Che, Sanjay Purushotham, Guangyu Li, Bo Jiang, Yan Liu</t>
   </si>
   <si>
+    <t>2018/07/10</t>
+  </si>
+  <si>
     <t>Multi-Rate Hierarchical Deep Markov Model</t>
   </si>
   <si>
@@ -271,6 +295,9 @@
     <t>Mathias Berglund, Tapani Raiko, Mikko Honkala, Leo Kärkkäinen, Akos Vetek, Juha Karhunen</t>
   </si>
   <si>
+    <t>2015/11/02</t>
+  </si>
+  <si>
     <t>BRNN</t>
   </si>
   <si>
@@ -293,6 +320,9 @@
   </si>
   <si>
     <t>Tianlin Xu, Li K. Wenliang, Michael Munn, Beatrice Acciaio</t>
+  </si>
+  <si>
+    <t>2020/10/21</t>
   </si>
   <si>
     <t>COT-GAN</t>
@@ -318,6 +348,9 @@
     <t>Mark Leznik, Patrick Michalsky, Peter Willis, Benjamin Schanzel, Per-Olov Östberg, Jörg Domaschka</t>
   </si>
   <si>
+    <t>2021/04/19</t>
+  </si>
+  <si>
     <t>Multivariate Time series generation</t>
   </si>
   <si>
@@ -335,6 +368,9 @@
   </si>
   <si>
     <t>Todd Huster, Jeremy E.J. Cohen, Zinan Lin, Kevin Chan, Charles Kamhoua, Nandi Leslie, Cho-Yu Jason Chiang, Vyas Sekar</t>
+  </si>
+  <si>
+    <t>2021/01/22</t>
   </si>
   <si>
     <t>Pareto GAN</t>
@@ -368,6 +404,9 @@
     <t>Ahmed M. Alaa, Alex James Chan, Mihaela van der Schaar</t>
   </si>
   <si>
+    <t>2021/03/18</t>
+  </si>
+  <si>
     <t>Fourier flow</t>
   </si>
   <si>
@@ -390,14 +429,13 @@
     <t>https://github.com/ahmedmalaa/Fourier-flows</t>
   </si>
   <si>
-    <t>How Faithful Is Your Synthetic Data?
-Sample-Level Metrics For Evaluating And Auditing Generative Models</t>
-  </si>
-  <si>
     <t>Ahmed M. Alaa, Boris van Breugel, Evgeny Saveliev, Mihaela van der Schaar</t>
   </si>
   <si>
-    <t>Model assessment</t>
+    <t>2021/02/17</t>
+  </si>
+  <si>
+    <t>Model Assessment</t>
   </si>
   <si>
     <t>SIVEP-Gripe COVID-19 patient data
@@ -417,6 +455,9 @@
   </si>
   <si>
     <t>Cristóbal Esteban, Stephanie L. Hyland, Gunnar Rätsch</t>
+  </si>
+  <si>
+    <t>2017/12/04</t>
   </si>
   <si>
     <t>RGAN
@@ -449,6 +490,9 @@
     <t>Abhyuday Desai, Cynthia Freeman, Zuhui Wang, Ian Beaver</t>
   </si>
   <si>
+    <t>2021/12/07</t>
+  </si>
+  <si>
     <t>TimeVAE</t>
   </si>
   <si>
@@ -472,6 +516,9 @@
   </si>
   <si>
     <t>Carl Remlinger, Joseph Mikael, Romuald Elie</t>
+  </si>
+  <si>
+    <t>2021/10/06</t>
   </si>
   <si>
     <t>Conditional Euler Generator</t>
@@ -506,6 +553,9 @@
     <t>Padmanaba Srinivasan, William J. Knottenbelt</t>
   </si>
   <si>
+    <t>2022/05/23</t>
+  </si>
+  <si>
     <t>TsT-GAN</t>
   </si>
   <si>
@@ -530,6 +580,9 @@
   </si>
   <si>
     <t>Sung Woo Park, Dong Wook Shu, Junseok Kwon</t>
+  </si>
+  <si>
+    <t>2021/07/18</t>
   </si>
   <si>
     <t>SD-GAN</t>
@@ -578,6 +631,9 @@
     <t>Magnus Wiese, Robert Knobloch, Ralf Korn, Peter Kretschmer</t>
   </si>
   <si>
+    <t>2020/04/06</t>
+  </si>
+  <si>
     <t>Quant GAN</t>
   </si>
   <si>
@@ -599,6 +655,9 @@
     <t>Lars Kegel, M. Hahmann, Wolfgang Lehner</t>
   </si>
   <si>
+    <t>2017/05/30</t>
+  </si>
+  <si>
     <t>Trend, season, residual model</t>
   </si>
   <si>
@@ -615,6 +674,9 @@
   </si>
   <si>
     <t>Mengyue Zha, SiuTim Wong, Mengqi Liu, Tong Zhang, Kani Chen</t>
+  </si>
+  <si>
+    <t>2022/05/19</t>
   </si>
   <si>
     <t>ExtraMAE</t>
@@ -643,6 +705,9 @@
     <t>Eoin Brophy, Zhengwei Wang, Tomas E. Ward</t>
   </si>
   <si>
+    <t>2019/10/29</t>
+  </si>
+  <si>
     <t>WGAN</t>
   </si>
   <si>
@@ -665,9 +730,6 @@
   </si>
   <si>
     <t>DP-TimeGAN, DP-Clare GAN, DP-CRNN GAN</t>
-  </si>
-  <si>
-    <t>Model Assessment</t>
   </si>
   <si>
     <t>Time series generation with data privacy</t>
@@ -693,6 +755,9 @@
     <t>Zinan Lin, Alankar Jain, Chen Wang, Giulia Fanti, Vyas Sekar</t>
   </si>
   <si>
+    <t>2020/10/27</t>
+  </si>
+  <si>
     <t>DoppelGANger</t>
   </si>
   <si>
@@ -715,6 +780,9 @@
     <t>Clare-GAN: Generation Of Class-Specific Time Series</t>
   </si>
   <si>
+    <t>2021/05/04</t>
+  </si>
+  <si>
     <t>ClaReGAN</t>
   </si>
   <si>
@@ -725,6 +793,9 @@
   </si>
   <si>
     <t>Derek Snow</t>
+  </si>
+  <si>
+    <t>2020/06/26</t>
   </si>
   <si>
     <t>MTSS-GAN</t>
@@ -748,7 +819,13 @@
     <t>https://github.com/firmai/mtss-gan/</t>
   </si>
   <si>
+    <t>TTS-GAN: A Transformer-Based Time-Series Generative Adversarial Network</t>
+  </si>
+  <si>
     <t>Xiaomin Li, Vangelis Metsis, Huangyingrui Wang, Anne Hee Hiong Ngu</t>
+  </si>
+  <si>
+    <t>2022/06/26</t>
   </si>
   <si>
     <t>TTS-GAN</t>
@@ -771,16 +848,16 @@
     <t>https://github.com/imics-lab/tts-gan</t>
   </si>
   <si>
-    <t>TTS-GAN: A Transformer-Based Time-Series Generative Adversarial Network</t>
-  </si>
-  <si>
-    <t>https://github.com/SigCGANs/Sig-Wasserstein-GANs</t>
+    <t>How Faithful Is Your Synthetic Data? Sample-Level Metrics For Evaluating And Auditing Generative Models</t>
   </si>
   <si>
     <t>A Data-driven Market Simulator For Small Data Environments</t>
   </si>
   <si>
     <t>Hans Buhler, Blanka Horvath, Terry Lyons, Imanol Perez Arribas, Ben Wood</t>
+  </si>
+  <si>
+    <t>VAE</t>
   </si>
   <si>
     <t>https://arxiv.org/abs/2006.14498</t>
@@ -794,16 +871,13 @@
   <si>
     <t>Rough Volatility model
 S&amp;P 500 Market Data</t>
-  </si>
-  <si>
-    <t>VAE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,6 +916,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -869,14 +949,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -885,7 +967,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1166,33 +1250,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FA087E-C0D3-469D-A8E2-9DE3389B497D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="145.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="141.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="88.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="72.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="2" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="138.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="93.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="74.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1200,7 +1280,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1228,7 +1308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1238,478 +1318,494 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5">
-        <v>44648</v>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5">
-        <v>43807</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5">
-        <v>44501</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5">
-        <v>43678</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="126" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="5">
-        <v>44516</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="5">
-        <v>44536</v>
+        <v>60</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="5">
-        <v>43291</v>
+        <v>68</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="5">
-        <v>42310</v>
+        <v>77</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="5">
-        <v>44125</v>
+        <v>86</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="5">
-        <v>44305</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>88</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="5">
-        <v>44218</v>
+        <v>101</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="5">
-        <v>44273</v>
+        <v>111</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="5">
-        <v>44244</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>111</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="5">
-        <v>43073</v>
+        <v>126</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
@@ -1717,462 +1813,485 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="5">
-        <v>44537</v>
+        <v>135</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="4" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="5">
-        <v>44475</v>
+        <v>143</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="5">
-        <v>44704</v>
+        <v>152</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="4" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>141</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="5">
-        <v>44395</v>
+        <v>160</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>145</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="4" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="5">
-        <v>44395</v>
+        <v>168</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>153</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="5">
-        <v>43927</v>
+        <v>173</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="5">
-        <v>42885</v>
+        <v>180</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="5">
-        <v>44700</v>
+        <v>187</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>171</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="5">
-        <v>43767</v>
+        <v>194</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>177</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="5">
-        <v>44475</v>
+        <v>201</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>181</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D26" s="5">
-        <v>44131</v>
+        <v>208</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="5">
-        <v>44320</v>
+        <v>201</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>195</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D28" s="5">
-        <v>44008</v>
+        <v>220</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="5">
-        <v>44738</v>
+        <v>229</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="4" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -2180,93 +2299,82 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D30" s="5">
-        <v>44003</v>
+        <v>44733</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L26" r:id="rId1" xr:uid="{09CD2A6A-C9D4-491F-AE49-079E211DCB02}"/>
-    <hyperlink ref="L29" r:id="rId2" xr:uid="{8C011ED6-34B2-47DB-97C3-18127E2D6457}"/>
-    <hyperlink ref="K29" r:id="rId3" xr:uid="{6DB19616-1766-49D1-A186-024F8FB78F74}"/>
-    <hyperlink ref="L28" r:id="rId4" xr:uid="{A6A8558A-7C04-41FE-A5AC-DE015AFB0F65}"/>
-    <hyperlink ref="K28" r:id="rId5" xr:uid="{BECF670C-16E5-4CCD-96D5-DAE379E90F9A}"/>
-    <hyperlink ref="L16" r:id="rId6" xr:uid="{63612FDE-62D3-4C23-B5F0-6C6711A21A98}"/>
-    <hyperlink ref="K27" r:id="rId7" xr:uid="{01ACD8FC-EB46-4076-9939-082AF23570B9}"/>
-    <hyperlink ref="K26" r:id="rId8" xr:uid="{BD9FFC96-7DE2-4954-9370-562123E52E84}"/>
-    <hyperlink ref="K25" r:id="rId9" xr:uid="{E69749B8-EF34-4B12-8980-8A29252EC1CC}"/>
-    <hyperlink ref="K24" r:id="rId10" xr:uid="{D334BDF8-2D7A-44BF-9DE9-75BB80D56282}"/>
-    <hyperlink ref="K23" r:id="rId11" xr:uid="{A791B576-655F-44E6-AC70-C2B79838586D}"/>
-    <hyperlink ref="K22" r:id="rId12" xr:uid="{E8E54421-BD47-4291-83B9-5FDB04B33432}"/>
-    <hyperlink ref="K21" r:id="rId13" xr:uid="{BBB867FC-42E9-4B56-A943-91715FAB074C}"/>
-    <hyperlink ref="K6" r:id="rId14" xr:uid="{81C0F4BA-DF71-4AA5-860E-4FFF0D7F533C}"/>
-    <hyperlink ref="K20" r:id="rId15" xr:uid="{8C1C84E0-795C-4312-AD67-AC69873D73A9}"/>
-    <hyperlink ref="K5" r:id="rId16" xr:uid="{CD64C257-F39E-4503-B5F4-164557F4E44E}"/>
-    <hyperlink ref="K4" r:id="rId17" xr:uid="{51A7E619-374A-454A-9737-A719F842E7EB}"/>
-    <hyperlink ref="K2" r:id="rId18" xr:uid="{DA1DC465-6E6B-401C-9731-7E68D10440BD}"/>
-    <hyperlink ref="K19" r:id="rId19" xr:uid="{674BD2EB-4E8A-44AC-AD6C-88E8E72B12C2}"/>
-    <hyperlink ref="K18" r:id="rId20" xr:uid="{85C6570A-5D27-4A24-BCCC-FB533353FA0E}"/>
-    <hyperlink ref="K17" r:id="rId21" xr:uid="{061C3607-D29D-4ACC-A962-79DDBAE299F0}"/>
-    <hyperlink ref="L3" r:id="rId22" xr:uid="{79EF36C8-2294-43B2-BFF4-A6228CB5A659}"/>
-    <hyperlink ref="K3" r:id="rId23" xr:uid="{1B45986B-67DD-4502-AC98-3844EA451E27}"/>
-    <hyperlink ref="K16" r:id="rId24" xr:uid="{C4EFBDA3-89D6-4A16-ABE7-82EC833482DC}"/>
-    <hyperlink ref="L15" r:id="rId25" xr:uid="{4D7085D3-BE51-4C36-B89A-70C948AFB76B}"/>
-    <hyperlink ref="K15" r:id="rId26" xr:uid="{700F074F-E754-4D0D-8F32-EAB328C16BB8}"/>
-    <hyperlink ref="K14" r:id="rId27" xr:uid="{F51AEA29-B266-478E-BA9D-3F643205233B}"/>
-    <hyperlink ref="K13" r:id="rId28" xr:uid="{41F3AED0-9FD6-4D8D-8441-D367C8C9B758}"/>
-    <hyperlink ref="L13" r:id="rId29" xr:uid="{2BDF5C6A-510D-4E7E-B3DE-A09ADA194BCA}"/>
-    <hyperlink ref="K12" r:id="rId30" xr:uid="{3948850B-6CE7-4949-9CD5-DF87D5BA2120}"/>
-    <hyperlink ref="L12" r:id="rId31" xr:uid="{E35A3F72-4A7A-484C-8527-1AC17A69EF0A}"/>
-    <hyperlink ref="K11" r:id="rId32" xr:uid="{29B798BB-950E-4502-B975-1D1B744FDDFF}"/>
-    <hyperlink ref="L10" r:id="rId33" xr:uid="{B964B6E0-E99B-48C8-B7FA-8ABCC984872E}"/>
-    <hyperlink ref="K10" r:id="rId34" xr:uid="{C66E211E-0CCF-474D-8270-B18805E0DF0F}"/>
-    <hyperlink ref="K7" r:id="rId35" xr:uid="{80D81BF5-EDDF-4025-9A19-B3BEA259AB63}"/>
-    <hyperlink ref="K9" r:id="rId36" xr:uid="{19F2C6C8-D54B-422C-98BE-73B2D614A224}"/>
-    <hyperlink ref="K8" r:id="rId37" xr:uid="{17AD1394-C0F1-491C-BBEB-D321539AA4DC}"/>
-    <hyperlink ref="L6" r:id="rId38" xr:uid="{48E40EA0-87CD-402E-BE35-C67B45076A03}"/>
-    <hyperlink ref="L4" r:id="rId39" xr:uid="{D5B7E020-104D-42DD-9A83-7A46D62750E6}"/>
-    <hyperlink ref="K30" r:id="rId40" xr:uid="{D45BF0F2-155B-4443-B8C8-BBEEDE09BC09}"/>
-    <hyperlink ref="L30" r:id="rId41" xr:uid="{E344E8A9-A6A3-4FFE-A138-0B6371C84025}"/>
+    <hyperlink ref="L26" r:id="rId1" xr:uid="{0D261B90-F00B-484E-B07F-A59B86B6F543}"/>
+    <hyperlink ref="L29" r:id="rId2" xr:uid="{D6499407-9E5C-4BE3-9C0D-582F0C06FC49}"/>
+    <hyperlink ref="K29" r:id="rId3" xr:uid="{D3707AC2-69E6-452B-8856-C1874F807861}"/>
+    <hyperlink ref="L28" r:id="rId4" xr:uid="{53F45E2B-73BA-483D-B45F-670524EFF02C}"/>
+    <hyperlink ref="K28" r:id="rId5" xr:uid="{C68F27F6-2D40-4E80-AF1B-321B91B8C6ED}"/>
+    <hyperlink ref="L16" r:id="rId6" xr:uid="{432A17E9-AD16-4B77-A5B9-37815045130A}"/>
+    <hyperlink ref="K27" r:id="rId7" xr:uid="{3FF3E23E-C610-4E76-8436-EF6F5DFC8B6B}"/>
+    <hyperlink ref="K26" r:id="rId8" xr:uid="{B03B183A-ADA6-41BB-9FDD-4686FFBC8819}"/>
+    <hyperlink ref="K25" r:id="rId9" xr:uid="{5E515384-4F7E-426F-AD12-538CBAD1DFF3}"/>
+    <hyperlink ref="K24" r:id="rId10" xr:uid="{C3F98333-F27B-4DB9-B9B0-631B035BD581}"/>
+    <hyperlink ref="K23" r:id="rId11" xr:uid="{D2A7C501-33BA-477F-A0DA-FB526E75BF8B}"/>
+    <hyperlink ref="K22" r:id="rId12" xr:uid="{4534A780-4137-42D2-A57C-FF74FD70FCAC}"/>
+    <hyperlink ref="K21" r:id="rId13" xr:uid="{424D8CD5-1AE5-403C-A612-2337596A4715}"/>
+    <hyperlink ref="K6" r:id="rId14" xr:uid="{674EE746-2A51-4E50-BC63-9F71D958977C}"/>
+    <hyperlink ref="K20" r:id="rId15" xr:uid="{3864D0A5-29B0-4771-A706-9B815AAB3358}"/>
+    <hyperlink ref="K5" r:id="rId16" xr:uid="{E28589C3-8DFA-4D71-B45B-5BE46D6D1C92}"/>
+    <hyperlink ref="K4" r:id="rId17" xr:uid="{6D034269-9664-475D-88D6-F86A63A63AEA}"/>
+    <hyperlink ref="K2" r:id="rId18" xr:uid="{F7C6A0FA-C948-40A3-8DCE-DEDB78FECD4E}"/>
+    <hyperlink ref="K19" r:id="rId19" xr:uid="{2E6FF879-FB1D-4921-BC0F-2FAFD0C27B97}"/>
+    <hyperlink ref="K18" r:id="rId20" xr:uid="{C6F90171-D836-469F-A824-2002F25124AC}"/>
+    <hyperlink ref="K17" r:id="rId21" xr:uid="{0B99833F-4B56-47A1-8F79-8E65C1BC2150}"/>
+    <hyperlink ref="L3" r:id="rId22" xr:uid="{062DE7F7-B1F7-4E88-A40B-DCBD9886E3E8}"/>
+    <hyperlink ref="K3" r:id="rId23" xr:uid="{281B3ECE-93F6-46D6-AC88-63C34D64D145}"/>
+    <hyperlink ref="K16" r:id="rId24" xr:uid="{61A6B1A1-CC52-4585-A5F5-7B2DC2EF9D27}"/>
+    <hyperlink ref="L15" r:id="rId25" xr:uid="{CBC5A369-B822-4822-B8A4-B9DCF609689B}"/>
+    <hyperlink ref="K15" r:id="rId26" xr:uid="{E16E132F-1279-4B48-B87C-B02E171D204F}"/>
+    <hyperlink ref="K14" r:id="rId27" xr:uid="{A6D36705-8AE5-4665-A6B9-7A45B0B5FA6D}"/>
+    <hyperlink ref="K13" r:id="rId28" xr:uid="{E9868126-3748-430B-A1EE-FF5A565C7CC7}"/>
+    <hyperlink ref="L13" r:id="rId29" xr:uid="{38926ECB-617B-44F5-9510-626B653F4C38}"/>
+    <hyperlink ref="K12" r:id="rId30" xr:uid="{9C1B4809-1684-41EE-807C-EECF0FE6ED41}"/>
+    <hyperlink ref="L12" r:id="rId31" xr:uid="{A879A25B-DE22-4F80-9FCA-F9AEE7D10228}"/>
+    <hyperlink ref="K11" r:id="rId32" xr:uid="{0A3D9FAF-F58E-466F-A0EE-EAB7AAFF4A48}"/>
+    <hyperlink ref="L10" r:id="rId33" xr:uid="{89C16789-1747-44D1-BC00-BE84900B631D}"/>
+    <hyperlink ref="K10" r:id="rId34" xr:uid="{60EEBAFE-0E90-45CD-AC4D-233563952AE8}"/>
+    <hyperlink ref="K7" r:id="rId35" xr:uid="{BC2EC477-93B6-4B2A-B2A1-D2411E28E027}"/>
+    <hyperlink ref="K9" r:id="rId36" xr:uid="{EFAAFA21-D6B3-421F-A7E2-E3FC8CDEF118}"/>
+    <hyperlink ref="K8" r:id="rId37" xr:uid="{EBD703AC-CD0F-4FBC-9F33-B04D21ECD979}"/>
+    <hyperlink ref="L6" r:id="rId38" xr:uid="{562A8533-3262-4109-B907-BFEABE419491}"/>
+    <hyperlink ref="L4" r:id="rId39" xr:uid="{59E396D1-D8F0-430C-B592-8D2F0FEE0AEE}"/>
+    <hyperlink ref="L30" r:id="rId40" xr:uid="{743B7C62-3F2C-40BE-BF43-3ECE7BB76EA3}"/>
+    <hyperlink ref="K30" r:id="rId41" xr:uid="{CDBB3BC4-5AFB-462D-B24C-B1E4222C37A6}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Review papers.xlsx
+++ b/Review papers.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A5335-A649-4BEC-98D1-83393A369E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86821395-DF38-4E09-94E4-5707F7A75418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17775" yWindow="0" windowWidth="33825" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="245">
   <si>
     <t>Title</t>
   </si>
@@ -871,6 +882,9 @@
   <si>
     <t>Rough Volatility model
 S&amp;P 500 Market Data</t>
+  </si>
+  <si>
+    <t>2020/06/21</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1268,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,8 +2318,8 @@
       <c r="C30" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D30" s="5">
-        <v>44733</v>
+      <c r="D30" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>239</v>
@@ -2376,5 +2390,6 @@
     <hyperlink ref="K30" r:id="rId41" xr:uid="{CDBB3BC4-5AFB-462D-B24C-B1E4222C37A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>